--- a/data/trans_dic/P44A$endoscopia-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.3201343155418245</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3325983167426529</v>
+        <v>0.3325983167426527</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.7350533962755327</v>
@@ -655,7 +655,7 @@
         <v>0.3721614431052861</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2401830274809626</v>
+        <v>0.2401830274809627</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7287950779347351</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2900312961083232</v>
+        <v>0.2893242782786961</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1543223030968712</v>
+        <v>0.1311718155490863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.24245206885586</v>
+        <v>0.2469782356867851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3869319742684035</v>
+        <v>0.4119707123338563</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1350620226553376</v>
+        <v>0.1375571790533051</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.158046295552271</v>
+        <v>0.1480786371801975</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4798029423301808</v>
+        <v>0.4570036360817062</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2087008966741319</v>
+        <v>0.1929051544467089</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2356203504367697</v>
+        <v>0.232959744694956</v>
       </c>
     </row>
     <row r="6">
@@ -713,28 +713,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5613785111917995</v>
+        <v>0.5313507867145413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4310530438018664</v>
+        <v>0.4328453024222563</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1</v>
+        <v>0.9244074797112584</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6535626635454744</v>
+        <v>0.6924529826482367</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3470445718712996</v>
+        <v>0.3467828875743332</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8971995105991158</v>
+        <v>0.89522223887095</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5232469048765377</v>
+        <v>0.5184634984133295</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.379213943556856</v>
+        <v>0.3741474813714409</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.6006566332725387</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3692597532595753</v>
+        <v>0.3692597532595752</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.61067207748876</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4721787528679437</v>
+        <v>0.4593965167287981</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3271920038334291</v>
+        <v>0.2802065445147216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.214221072072028</v>
+        <v>0.2287740215263623</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2524236304448144</v>
+        <v>0.2435039960978049</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1775239278767877</v>
+        <v>0.1794328416902975</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2542377573260187</v>
+        <v>0.2635493045214339</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4430528437066032</v>
+        <v>0.4285755408596943</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3699875889483349</v>
+        <v>0.4115952029190484</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.262096320616886</v>
+        <v>0.2686083322800532</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9091976913581145</v>
+        <v>0.9099390453590079</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4465174437971236</v>
+        <v>0.4561127036379735</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6769014452162294</v>
+        <v>0.6784334764469856</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.484249888745846</v>
+        <v>0.4952064410852334</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7534754082291012</v>
+        <v>0.7596339756281588</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8777408657162136</v>
+        <v>0.9204140529910232</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4362913486683085</v>
+        <v>0.4414920013195612</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.3444839189594857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4083514708477757</v>
+        <v>0.4083514708477758</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.6312142729069785</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1272109375462888</v>
+        <v>0.1262607137303784</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1631275183463056</v>
+        <v>0.1633816150395938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3089061734343636</v>
+        <v>0.3101345368288049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2958172618392222</v>
+        <v>0.2813022523791022</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05088101449956631</v>
+        <v>0.05157331136268374</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2297717379887366</v>
+        <v>0.2251876207067047</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3397641753216588</v>
+        <v>0.3230322222461958</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1493851795717027</v>
+        <v>0.1578720719638605</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2930671514966769</v>
+        <v>0.2956926000414494</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8081480905326486</v>
+        <v>0.8217952257484956</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5440341168253333</v>
+        <v>0.5590108398651312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5173017770739164</v>
+        <v>0.529373999899635</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8492096404377687</v>
+        <v>0.8466438392663104</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4982161142574035</v>
+        <v>0.5371767434290919</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4194342062403592</v>
+        <v>0.4074804463497258</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7687209194326905</v>
+        <v>0.7681460191148772</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4399462298918729</v>
+        <v>0.4468089058289858</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4285865813583263</v>
+        <v>0.4399641123961601</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.8325359294701247</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.5087612062523673</v>
+        <v>0.5087612062523672</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.6322545294459372</v>
@@ -991,7 +991,7 @@
         <v>0.704929496341994</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.496192931769057</v>
+        <v>0.4961929317690572</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2138260821793947</v>
+        <v>0.3043898010879788</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3870824358126886</v>
+        <v>0.4071128806187922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3572020010142109</v>
+        <v>0.3715868545189679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3454738390074129</v>
+        <v>0.3485402481519156</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6035898541861685</v>
+        <v>0.5847761574617745</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4254173306638993</v>
+        <v>0.4163171858865236</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3994885541396997</v>
+        <v>0.410592419549048</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5588009510343297</v>
+        <v>0.5586140199882564</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4208202438434672</v>
+        <v>0.4256536418827276</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9049700473755041</v>
+        <v>0.8990080030998004</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7911691795519966</v>
+        <v>0.7807681721212023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5908942290371604</v>
+        <v>0.617290996869403</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9237858126934059</v>
+        <v>0.8784356086931525</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9495957392386908</v>
+        <v>0.9482899819361885</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5990948511099503</v>
+        <v>0.5916006125245763</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8163717863228693</v>
+        <v>0.8139985761076686</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8406892555534278</v>
+        <v>0.8288404778294131</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5688362680397381</v>
+        <v>0.5740351242933051</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.736163388048911</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4897891486297256</v>
+        <v>0.4897891486297258</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.917988253247653</v>
@@ -1100,7 +1100,7 @@
         <v>0.7067177707086723</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6053717208313676</v>
+        <v>0.6053717208313674</v>
       </c>
     </row>
     <row r="17">
@@ -1115,25 +1115,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5173322685584242</v>
+        <v>0.5220331074430662</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3381050729042714</v>
+        <v>0.335727772348351</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0</v>
+        <v>0.2235463748184731</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3319960064192606</v>
+        <v>0.3372251925799566</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5843196337758302</v>
+        <v>0.6625647285900006</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2770447489080041</v>
+        <v>0.2791019158960231</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4801683242895671</v>
+        <v>0.4802236443732016</v>
       </c>
     </row>
     <row r="18">
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8777204746823132</v>
+        <v>0.9009465459581885</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6423223577807956</v>
+        <v>0.6419010476799651</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7187731041955171</v>
+        <v>0.7198386154254842</v>
       </c>
     </row>
     <row r="19">
@@ -1187,7 +1187,7 @@
         <v>0.5414828391368693</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.4356382462044528</v>
+        <v>0.4356382462044529</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.6622371147959437</v>
@@ -1205,7 +1205,7 @@
         <v>0.5875243850594195</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.3397781752683846</v>
+        <v>0.3397781752683848</v>
       </c>
     </row>
     <row r="20">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3260662829660386</v>
+        <v>0.2228910815775329</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2336621522701117</v>
+        <v>0.2299969606731824</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.317741850519291</v>
+        <v>0.3118003075238843</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1660926076871803</v>
+        <v>0.3147752899714365</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2672733998255586</v>
+        <v>0.2490403249002237</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1252958821960407</v>
+        <v>0.1344908756740121</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3934431178081484</v>
+        <v>0.3937629354936663</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3550184522826513</v>
+        <v>0.3249380249081663</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2564193344725768</v>
+        <v>0.2597127922478419</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8899721934347964</v>
+        <v>0.8883571816365602</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8916247677706055</v>
+        <v>0.8913635895412818</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5632886174102399</v>
+        <v>0.5598275325259866</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8892057861727241</v>
+        <v>0.8870954515069994</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.327350384637779</v>
+        <v>0.344004926791742</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8651591557363573</v>
+        <v>0.8661281233438687</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8014495186960628</v>
+        <v>0.7894010295878089</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4272877736646415</v>
+        <v>0.4322362350393115</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>0.6731733645686401</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4779991925178345</v>
+        <v>0.4779991925178344</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6817899649587493</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3697866082347697</v>
+        <v>0.4051881866146749</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5191488775959971</v>
+        <v>0.5158571781692611</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3957641628579729</v>
+        <v>0.3861035469118176</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4189687592528243</v>
+        <v>0.4196342720543796</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4716417136529544</v>
+        <v>0.4862426437333535</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.278771449814968</v>
+        <v>0.2790410970165692</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4869902947403931</v>
+        <v>0.4858536105798844</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5442143400862841</v>
+        <v>0.5601458286164251</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3554317620989408</v>
+        <v>0.3570482592589289</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8739580854340505</v>
+        <v>0.877972329504723</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8132002531388347</v>
+        <v>0.804571862391839</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5655873967309007</v>
+        <v>0.5712864286054403</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8764831114834137</v>
+        <v>0.8716477252006745</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8476568694175097</v>
+        <v>0.8496576496196663</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4195480038844281</v>
+        <v>0.4095578969295903</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8263558208540661</v>
+        <v>0.8199542693980046</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.784427274045017</v>
+        <v>0.7844030978755746</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4621194407683589</v>
+        <v>0.4651116788146977</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.210974236885325</v>
+        <v>0.2130625449688625</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2091044266911376</v>
+        <v>0.211057099822651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3755655944582588</v>
+        <v>0.3842864320914118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2149770560528553</v>
+        <v>0.2798130497248624</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2346047264224066</v>
+        <v>0.2370951345261199</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3224753454798212</v>
+        <v>0.318708631130499</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2843512261002559</v>
+        <v>0.2776285418524616</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2766086869122048</v>
+        <v>0.269971346625372</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3740200032986087</v>
+        <v>0.3713476680903668</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6375479572398802</v>
+        <v>0.6337533750793313</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6424733610173106</v>
+        <v>0.626369548048336</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5240782882119731</v>
+        <v>0.5245862235497361</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.786612501789443</v>
+        <v>0.7850934456445096</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7642276681187316</v>
+        <v>0.7666193125658404</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4459728748273647</v>
+        <v>0.4421956071508455</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6207418601958303</v>
+        <v>0.5963908796854113</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6104131793950722</v>
+        <v>0.596302105955833</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4646816168734663</v>
+        <v>0.4659197726843503</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.434252118432943</v>
+        <v>0.4436016590888513</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3945444742094213</v>
+        <v>0.3961772401011128</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5072840622761006</v>
+        <v>0.5280863229691877</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4577022590716825</v>
+        <v>0.4552417301709759</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3303772610531127</v>
+        <v>0.3305191409810497</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.550433936125643</v>
+        <v>0.5437987943811161</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4741864724804266</v>
+        <v>0.4785434536724951</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3748171074129124</v>
+        <v>0.3764173434622524</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.592952418997872</v>
+        <v>0.5982211959955898</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4698015393320824</v>
+        <v>0.4738341152853153</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7170285641097613</v>
+        <v>0.722748308415596</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.6587974738730985</v>
+        <v>0.6550825714658608</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3980833799104601</v>
+        <v>0.3933575329040588</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6833501931408523</v>
+        <v>0.6829659587101463</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6025356556263511</v>
+        <v>0.5968423588087639</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4242581768479508</v>
+        <v>0.4256363689547534</v>
       </c>
     </row>
     <row r="31">
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3607</v>
+        <v>3066</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17830</v>
+        <v>18163</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4283</v>
+        <v>4561</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2132</v>
+        <v>2171</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5715</v>
+        <v>5354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8648</v>
+        <v>8237</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8172</v>
+        <v>7554</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>25847</v>
+        <v>25555</v>
       </c>
     </row>
     <row r="7">
@@ -1873,28 +1873,28 @@
         <v>6955</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13120</v>
+        <v>12418</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31699</v>
+        <v>31831</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11070</v>
+        <v>10233</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10317</v>
+        <v>10931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12548</v>
+        <v>12539</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16172</v>
+        <v>16136</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20489</v>
+        <v>20301</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>41599</v>
+        <v>41043</v>
       </c>
     </row>
     <row r="8">
@@ -1979,31 +1979,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11386</v>
+        <v>11077</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3049</v>
+        <v>2611</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13933</v>
+        <v>14879</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5153</v>
+        <v>4971</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10723</v>
+        <v>11115</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19727</v>
+        <v>19083</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5558</v>
+        <v>6183</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28100</v>
+        <v>28799</v>
       </c>
     </row>
     <row r="11">
@@ -2014,31 +2014,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21923</v>
+        <v>21941</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>9319</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29041</v>
+        <v>29665</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13818</v>
+        <v>13849</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>5704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20424</v>
+        <v>20886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>33549</v>
+        <v>33823</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13186</v>
+        <v>13827</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>46777</v>
+        <v>47334</v>
       </c>
     </row>
     <row r="12">
@@ -2123,31 +2123,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3407</v>
+        <v>3413</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17188</v>
+        <v>17257</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3938</v>
+        <v>3745</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13143</v>
+        <v>12881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7655</v>
+        <v>7278</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6101</v>
+        <v>6447</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>33071</v>
+        <v>33367</v>
       </c>
     </row>
     <row r="15">
@@ -2158,31 +2158,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7450</v>
+        <v>7576</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11363</v>
+        <v>11676</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28784</v>
+        <v>29455</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11305</v>
+        <v>11271</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9940</v>
+        <v>10718</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23992</v>
+        <v>23309</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17320</v>
+        <v>17307</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17967</v>
+        <v>18248</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>48363</v>
+        <v>49647</v>
       </c>
     </row>
     <row r="16">
@@ -2267,31 +2267,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2335</v>
+        <v>3324</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10074</v>
+        <v>10595</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21164</v>
+        <v>22017</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4727</v>
+        <v>4769</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12326</v>
+        <v>11942</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27073</v>
+        <v>26494</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9828</v>
+        <v>10101</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25954</v>
+        <v>25945</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>51714</v>
+        <v>52308</v>
       </c>
     </row>
     <row r="19">
@@ -2302,31 +2302,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9881</v>
+        <v>9816</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20590</v>
+        <v>20319</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35010</v>
+        <v>36574</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12639</v>
+        <v>12019</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19392</v>
+        <v>19365</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>38126</v>
+        <v>37649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20084</v>
+        <v>20025</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39047</v>
+        <v>38496</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>69904</v>
+        <v>70543</v>
       </c>
     </row>
     <row r="20">
@@ -2415,25 +2415,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6994</v>
+        <v>7057</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2220</v>
+        <v>2204</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4895</v>
+        <v>4972</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7517</v>
+        <v>8523</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1929</v>
+        <v>1943</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13571</v>
+        <v>13573</v>
       </c>
     </row>
     <row r="23">
@@ -2448,7 +2448,7 @@
         <v>2972</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11866</v>
+        <v>12180</v>
       </c>
       <c r="F23" s="6" t="n">
         <v>6566</v>
@@ -2457,7 +2457,7 @@
         <v>3989</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9471</v>
+        <v>9465</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>12864</v>
@@ -2466,7 +2466,7 @@
         <v>6961</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>20315</v>
+        <v>20346</v>
       </c>
     </row>
     <row r="24">
@@ -2551,31 +2551,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3015</v>
+        <v>2061</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2427</v>
+        <v>2389</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12022</v>
+        <v>11798</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1045</v>
+        <v>1981</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2300</v>
+        <v>2143</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3888</v>
+        <v>4173</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6114</v>
+        <v>6119</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6742</v>
+        <v>6171</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>17659</v>
+        <v>17885</v>
       </c>
     </row>
     <row r="27">
@@ -2586,31 +2586,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8230</v>
+        <v>8216</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9261</v>
+        <v>9259</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21313</v>
+        <v>21182</v>
       </c>
       <c r="F27" s="6" t="n">
         <v>6292</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7652</v>
+        <v>7633</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10157</v>
+        <v>10674</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13445</v>
+        <v>13460</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>15220</v>
+        <v>14992</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>29426</v>
+        <v>29766</v>
       </c>
     </row>
     <row r="28">
@@ -2695,31 +2695,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5807</v>
+        <v>6363</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20932</v>
+        <v>20799</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>48109</v>
+        <v>46934</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8619</v>
+        <v>8633</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>13299</v>
+        <v>13711</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>37565</v>
+        <v>37602</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17667</v>
+        <v>17625</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>37288</v>
+        <v>38380</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>91101</v>
+        <v>91516</v>
       </c>
     </row>
     <row r="31">
@@ -2730,31 +2730,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>13726</v>
+        <v>13789</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>32787</v>
+        <v>32440</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>68752</v>
+        <v>69445</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>18031</v>
+        <v>17932</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>23902</v>
+        <v>23959</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>56535</v>
+        <v>55189</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>29978</v>
+        <v>29745</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>53747</v>
+        <v>53746</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>118447</v>
+        <v>119214</v>
       </c>
     </row>
     <row r="32">
@@ -2839,31 +2839,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5677</v>
+        <v>5733</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5522</v>
+        <v>5573</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>54264</v>
+        <v>55524</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3234</v>
+        <v>4210</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3160</v>
+        <v>3194</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>47908</v>
+        <v>47348</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>11930</v>
+        <v>11648</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>11030</v>
+        <v>10765</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>109607</v>
+        <v>108824</v>
       </c>
     </row>
     <row r="35">
@@ -2874,31 +2874,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>17156</v>
+        <v>17054</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16965</v>
+        <v>16540</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>75722</v>
+        <v>75796</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11835</v>
+        <v>11812</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>10294</v>
+        <v>10326</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>66255</v>
+        <v>65694</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>26043</v>
+        <v>25021</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>24341</v>
+        <v>23778</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>136175</v>
+        <v>136538</v>
       </c>
     </row>
     <row r="36">
@@ -2983,31 +2983,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>69344</v>
+        <v>70837</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>225234</v>
+        <v>226166</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>54255</v>
+        <v>56479</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>53151</v>
+        <v>52865</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>174527</v>
+        <v>174602</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>119069</v>
+        <v>117633</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>130786</v>
+        <v>131988</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>411975</v>
+        <v>413734</v>
       </c>
     </row>
     <row r="39">
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>94686</v>
+        <v>95528</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>268196</v>
+        <v>270498</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>76687</v>
+        <v>77299</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>76504</v>
+        <v>76072</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>210294</v>
+        <v>207797</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>147821</v>
+        <v>147738</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>166187</v>
+        <v>164616</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>466318</v>
+        <v>467833</v>
       </c>
     </row>
     <row r="40">
